--- a/100runs/run095/NotionalETEOutput095.xlsx
+++ b/100runs/run095/NotionalETEOutput095.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,19 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
-  </si>
-  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_498.MISSILE_SOMERSAULT_498</t>
+    <t>MISSILE_HELLMASKER_265.MISSILE_HELLMASKER_265</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_358.MISSILE_HELLMASKER_358</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HELLMASKER_258.MISSILE_HELLMASKER_258</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
@@ -471,31 +465,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>184.6900962680884</v>
+        <v>1116576.37879449</v>
       </c>
       <c r="G2">
-        <v>-169.2461775691083</v>
+        <v>4841119.592381668</v>
       </c>
       <c r="H2">
-        <v>880.9877089670913</v>
+        <v>3985236.158367106</v>
       </c>
       <c r="I2">
-        <v>-1083.757729525776</v>
+        <v>1114860.955321549</v>
       </c>
       <c r="J2">
-        <v>2190.471265140645</v>
+        <v>4843223.478685855</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.789298714</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +500,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>184.6900962680884</v>
+        <v>1116576.37879449</v>
       </c>
       <c r="G3">
-        <v>-169.2461775691083</v>
+        <v>4841119.592381668</v>
       </c>
       <c r="H3">
-        <v>880.9877089670913</v>
+        <v>3985236.158367106</v>
       </c>
       <c r="I3">
-        <v>-1062.361466182789</v>
+        <v>1114890.569307331</v>
       </c>
       <c r="J3">
-        <v>2137.186312124212</v>
+        <v>4843174.82709557</v>
       </c>
       <c r="K3">
-        <v>273.0253738476602</v>
+        <v>3984674.585326383</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +535,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>184.6900962680884</v>
+        <v>1116576.37879449</v>
       </c>
       <c r="G4">
-        <v>-169.2461775691083</v>
+        <v>4841119.592381668</v>
       </c>
       <c r="H4">
-        <v>880.9877089670913</v>
+        <v>3985236.158367106</v>
       </c>
       <c r="I4">
-        <v>-1040.438339539182</v>
+        <v>1114920.912510269</v>
       </c>
       <c r="J4">
-        <v>2083.901359107779</v>
+        <v>4843126.175505284</v>
       </c>
       <c r="K4">
-        <v>532.4364510518913</v>
+        <v>3984963.232691562</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +570,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>184.6900962680884</v>
+        <v>1116576.37879449</v>
       </c>
       <c r="G5">
-        <v>-169.2461775691083</v>
+        <v>4841119.592381668</v>
       </c>
       <c r="H5">
-        <v>880.9877089670913</v>
+        <v>3985236.158367106</v>
       </c>
       <c r="I5">
-        <v>-1017.975376070883</v>
+        <v>1114952.002886665</v>
       </c>
       <c r="J5">
-        <v>2030.616406091345</v>
+        <v>4843077.523914999</v>
       </c>
       <c r="K5">
-        <v>778.2332316126948</v>
+        <v>3985236.73139425</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +605,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>184.6900962680884</v>
+        <v>1116576.37879449</v>
       </c>
       <c r="G6">
-        <v>-169.2461775691083</v>
+        <v>4841119.592381668</v>
       </c>
       <c r="H6">
-        <v>880.9877089670913</v>
+        <v>3985236.158367106</v>
       </c>
       <c r="I6">
-        <v>-994.9592827927241</v>
+        <v>1114983.858834976</v>
       </c>
       <c r="J6">
-        <v>1977.331453074912</v>
+        <v>4843028.872324714</v>
       </c>
       <c r="K6">
-        <v>1010.415715530069</v>
+        <v>3985495.081434448</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +640,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>184.6900962680884</v>
+        <v>1116576.37879449</v>
       </c>
       <c r="G7">
-        <v>-169.2461775691083</v>
+        <v>4841119.592381668</v>
       </c>
       <c r="H7">
-        <v>880.9877089670913</v>
+        <v>3985236.158367106</v>
       </c>
       <c r="I7">
-        <v>-971.3764393920081</v>
+        <v>1115016.499206708</v>
       </c>
       <c r="J7">
-        <v>1924.046500058479</v>
+        <v>4842980.220734429</v>
       </c>
       <c r="K7">
-        <v>1228.983902804017</v>
+        <v>3985738.282812155</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +675,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>184.6900962680884</v>
+        <v>1116576.37879449</v>
       </c>
       <c r="G8">
-        <v>-169.2461775691083</v>
+        <v>4841119.592381668</v>
       </c>
       <c r="H8">
-        <v>880.9877089670913</v>
+        <v>3985236.158367106</v>
       </c>
       <c r="I8">
-        <v>-947.2128901683678</v>
+        <v>1115049.943317565</v>
       </c>
       <c r="J8">
-        <v>1870.761547042046</v>
+        <v>4842931.569144143</v>
       </c>
       <c r="K8">
-        <v>1433.937793434536</v>
+        <v>3985966.335527372</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +710,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>184.6900962680884</v>
+        <v>1116576.37879449</v>
       </c>
       <c r="G9">
-        <v>-169.2461775691083</v>
+        <v>4841119.592381668</v>
       </c>
       <c r="H9">
-        <v>880.9877089670913</v>
+        <v>3985236.158367106</v>
       </c>
       <c r="I9">
-        <v>-922.4543357751531</v>
+        <v>1115084.210958884</v>
       </c>
       <c r="J9">
-        <v>1817.476594025612</v>
+        <v>4842882.917553858</v>
       </c>
       <c r="K9">
-        <v>1625.277387421627</v>
+        <v>3986179.239580098</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +745,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>184.6900962680884</v>
+        <v>1116576.37879449</v>
       </c>
       <c r="G10">
-        <v>-141.2988696859688</v>
+        <v>4841136.105183924</v>
       </c>
       <c r="H10">
-        <v>880.9877089670913</v>
+        <v>3985236.158367106</v>
       </c>
       <c r="I10">
-        <v>-897.0861247574579</v>
+        <v>1115119.322409345</v>
       </c>
       <c r="J10">
-        <v>1764.191641009179</v>
+        <v>4842834.265963573</v>
       </c>
       <c r="K10">
-        <v>1803.002684765289</v>
+        <v>3986376.994970333</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +780,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>143.3410599966158</v>
+        <v>1116527.698323368</v>
       </c>
       <c r="G11">
-        <v>-113.3515618028293</v>
+        <v>4841152.617986178</v>
       </c>
       <c r="H11">
-        <v>1085.37092923199</v>
+        <v>3985435.413165368</v>
       </c>
       <c r="I11">
-        <v>-871.093244881778</v>
+        <v>1115155.298446971</v>
       </c>
       <c r="J11">
-        <v>1710.906687992746</v>
+        <v>4842785.614373288</v>
       </c>
       <c r="K11">
-        <v>1967.113685465523</v>
+        <v>3986559.601698078</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +815,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>119.050575478701</v>
+        <v>1116499.10098866</v>
       </c>
       <c r="G12">
-        <v>-85.40425391968986</v>
+        <v>4841169.130788433</v>
       </c>
       <c r="H12">
-        <v>1207.11202777647</v>
+        <v>3985554.099513489</v>
       </c>
       <c r="I12">
-        <v>-844.4603142521706</v>
+        <v>1115192.160361427</v>
       </c>
       <c r="J12">
-        <v>1657.621734976313</v>
+        <v>4842736.962783001</v>
       </c>
       <c r="K12">
-        <v>2117.610389522329</v>
+        <v>3986727.059763332</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +850,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>103.7166396108862</v>
+        <v>1116481.048252986</v>
       </c>
       <c r="G13">
-        <v>-57.45694603655038</v>
+        <v>4841185.643590689</v>
       </c>
       <c r="H13">
-        <v>1294.112162739916</v>
+        <v>3985638.916624789</v>
       </c>
       <c r="I13">
-        <v>-817.1715722076556</v>
+        <v>1115229.929966614</v>
       </c>
       <c r="J13">
-        <v>1604.33678195988</v>
+        <v>4842688.311192716</v>
       </c>
       <c r="K13">
-        <v>2254.492796935707</v>
+        <v>3986879.369166095</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +885,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>93.02281498077214</v>
+        <v>1116468.458348407</v>
       </c>
       <c r="G14">
-        <v>-29.5096381534109</v>
+        <v>4841202.156392943</v>
       </c>
       <c r="H14">
-        <v>1361.859121225596</v>
+        <v>3985704.963663916</v>
       </c>
       <c r="I14">
-        <v>-789.2108699954772</v>
+        <v>1115268.629613581</v>
       </c>
       <c r="J14">
-        <v>1551.051828943447</v>
+        <v>4842639.659602432</v>
       </c>
       <c r="K14">
-        <v>2377.760907705657</v>
+        <v>3987016.529906368</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +920,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>85.04490156319818</v>
+        <v>1116459.065902567</v>
       </c>
       <c r="G15">
-        <v>-1.562330270271449</v>
+        <v>4841218.669195198</v>
       </c>
       <c r="H15">
-        <v>1417.349135158463</v>
+        <v>3985759.061312037</v>
       </c>
       <c r="I15">
-        <v>-760.5616612146981</v>
+        <v>1115308.282203751</v>
       </c>
       <c r="J15">
-        <v>1497.766875927014</v>
+        <v>4842591.008012147</v>
       </c>
       <c r="K15">
-        <v>2487.414721832178</v>
+        <v>3987138.541984151</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +955,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>78.80728735323513</v>
+        <v>1116451.722321536</v>
       </c>
       <c r="G16">
-        <v>26.38497761286803</v>
+        <v>4841235.181997453</v>
       </c>
       <c r="H16">
-        <v>1464.345126384906</v>
+        <v>3985804.878071059</v>
       </c>
       <c r="I16">
-        <v>-731.2069920244812</v>
+        <v>1115348.911202475</v>
       </c>
       <c r="J16">
-        <v>1444.48192291058</v>
+        <v>4842542.356421861</v>
       </c>
       <c r="K16">
-        <v>2583.454239315272</v>
+        <v>3987245.405399443</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +990,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>73.76060328179196</v>
+        <v>1116445.780829778</v>
       </c>
       <c r="G17">
-        <v>54.33228549600751</v>
+        <v>4841251.694799708</v>
       </c>
       <c r="H17">
-        <v>1505.105589528264</v>
+        <v>3985844.615765034</v>
       </c>
       <c r="I17">
-        <v>-701.1294911112556</v>
+        <v>1115390.540652914</v>
       </c>
       <c r="J17">
-        <v>1391.196969894147</v>
+        <v>4842493.704831576</v>
       </c>
       <c r="K17">
-        <v>2665.879460154937</v>
+        <v>3987337.120152243</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1025,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>69.57005726822035</v>
+        <v>1116440.847274547</v>
       </c>
       <c r="G18">
-        <v>82.27959337914696</v>
+        <v>4841268.207601964</v>
       </c>
       <c r="H18">
-        <v>1541.09304508527</v>
+        <v>3985879.700216623</v>
       </c>
       <c r="I18">
-        <v>-670.3113594088353</v>
+        <v>1115433.195190272</v>
       </c>
       <c r="J18">
-        <v>1337.912016877714</v>
+        <v>4842445.05324129</v>
       </c>
       <c r="K18">
-        <v>2734.690384351174</v>
+        <v>3987413.686242554</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1060,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>66.01888482112979</v>
+        <v>1116436.666457692</v>
       </c>
       <c r="G19">
-        <v>110.2269012622865</v>
+        <v>4841284.720404217</v>
       </c>
       <c r="H19">
-        <v>1573.309059524121</v>
+        <v>3985911.1078608</v>
       </c>
       <c r="I19">
-        <v>-638.734359565404</v>
+        <v>1115476.900056371</v>
       </c>
       <c r="J19">
-        <v>1284.627063861281</v>
+        <v>4842396.401651005</v>
       </c>
       <c r="K19">
-        <v>2789.887011903983</v>
+        <v>3987475.103670374</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1095,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>62.95989621164597</v>
+        <v>1116433.065091854</v>
       </c>
       <c r="G20">
-        <v>138.1742091454259</v>
+        <v>4841301.233206472</v>
       </c>
       <c r="H20">
-        <v>1602.469669219831</v>
+        <v>3985939.536767021</v>
       </c>
       <c r="I20">
-        <v>-606.3798051511354</v>
+        <v>1115521.68111459</v>
       </c>
       <c r="J20">
-        <v>1231.342110844848</v>
+        <v>4842347.750060719</v>
       </c>
       <c r="K20">
-        <v>2831.469342813363</v>
+        <v>3987521.372435703</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1130,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>60.28924109231966</v>
+        <v>1116429.920913389</v>
       </c>
       <c r="G21">
-        <v>166.1215170285654</v>
+        <v>4841317.746008728</v>
       </c>
       <c r="H21">
-        <v>1629.104556555777</v>
+        <v>3985965.503326781</v>
       </c>
       <c r="I21">
-        <v>-573.2285496000599</v>
+        <v>1115567.564865171</v>
       </c>
       <c r="J21">
-        <v>1178.057157828414</v>
+        <v>4842299.098470435</v>
       </c>
       <c r="K21">
-        <v>2859.437377079316</v>
+        <v>3987552.492538542</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1165,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>57.93130503787768</v>
+        <v>1116427.144900975</v>
       </c>
       <c r="G22">
-        <v>194.0688249117049</v>
+        <v>4841334.258810982</v>
       </c>
       <c r="H22">
-        <v>1653.616585816853</v>
+        <v>3985989.400295617</v>
       </c>
       <c r="I22">
-        <v>-539.2609748796348</v>
+        <v>1115614.578460896</v>
       </c>
       <c r="J22">
-        <v>1124.772204811981</v>
+        <v>4842250.44688015</v>
       </c>
       <c r="K22">
-        <v>2873.79111470184</v>
+        <v>3987568.46397889</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1200,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>55.82956598942981</v>
+        <v>1116424.670510849</v>
       </c>
       <c r="G23">
-        <v>222.0161327948443</v>
+        <v>4841350.771613237</v>
       </c>
       <c r="H23">
-        <v>1676.319312188517</v>
+        <v>3986011.533360931</v>
       </c>
       <c r="I23">
-        <v>-504.456979881315</v>
+        <v>1115662.749723165</v>
       </c>
       <c r="J23">
-        <v>1071.487251795548</v>
+        <v>4842201.795289865</v>
       </c>
       <c r="K23">
-        <v>2874.530555680936</v>
+        <v>3987569.286756748</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1235,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>53.94082152885466</v>
+        <v>1116422.446880543</v>
       </c>
       <c r="G24">
-        <v>249.9634406779838</v>
+        <v>4841367.284415493</v>
       </c>
       <c r="H24">
-        <v>1697.461572960366</v>
+        <v>3986032.14511614</v>
       </c>
       <c r="I24">
-        <v>-468.79596852525</v>
+        <v>1115712.10715845</v>
       </c>
       <c r="J24">
-        <v>1018.202298779115</v>
+        <v>4842153.143699578</v>
       </c>
       <c r="K24">
-        <v>2861.655700016604</v>
+        <v>3987554.960872114</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1270,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>52.23141253332202</v>
+        <v>1116420.434382968</v>
       </c>
       <c r="G25">
-        <v>277.9107485611233</v>
+        <v>4841383.797217747</v>
       </c>
       <c r="H25">
-        <v>1717.244157164511</v>
+        <v>3986051.43131204</v>
       </c>
       <c r="I25">
-        <v>-432.2568375720704</v>
+        <v>1115762.679975171</v>
       </c>
       <c r="J25">
-        <v>964.9173457626816</v>
+        <v>4842104.492109293</v>
       </c>
       <c r="K25">
-        <v>2835.166547708844</v>
+        <v>3987525.486324991</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1305,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>50.67467645949073</v>
+        <v>1116418.601628149</v>
       </c>
       <c r="G26">
-        <v>305.8580564442628</v>
+        <v>4841400.310020003</v>
       </c>
       <c r="H26">
-        <v>1735.831431305409</v>
+        <v>3986069.55219082</v>
       </c>
       <c r="I26">
-        <v>-394.817964134553</v>
+        <v>1115814.498100978</v>
       </c>
       <c r="J26">
-        <v>911.6323927462483</v>
+        <v>4842055.840519008</v>
       </c>
       <c r="K26">
-        <v>2795.063098757655</v>
+        <v>3987480.863115376</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1340,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>49.24918398775466</v>
+        <v>1116416.923387218</v>
       </c>
       <c r="G27">
-        <v>333.8053643274022</v>
+        <v>4841416.822822257</v>
       </c>
       <c r="H27">
-        <v>1753.359648564899</v>
+        <v>3986086.640586772</v>
       </c>
       <c r="I27">
-        <v>-356.4571928817689</v>
+        <v>1115867.592200461</v>
       </c>
       <c r="J27">
-        <v>858.3474397298151</v>
+        <v>4842007.188928722</v>
       </c>
       <c r="K27">
-        <v>2741.345353163038</v>
+        <v>3987421.091243272</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1375,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>47.9374895863927</v>
+        <v>1116415.379121446</v>
       </c>
       <c r="G28">
-        <v>361.7526722105417</v>
+        <v>4841433.335624512</v>
       </c>
       <c r="H28">
-        <v>1769.943015804376</v>
+        <v>3986102.807841058</v>
       </c>
       <c r="I28">
-        <v>-317.1518229281475</v>
+        <v>1115921.993693298</v>
       </c>
       <c r="J28">
-        <v>805.0624867133821</v>
+        <v>4841958.537338438</v>
       </c>
       <c r="K28">
-        <v>2674.013310924994</v>
+        <v>3987346.170708676</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1410,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>46.72522802823813</v>
+        <v>1116413.951918563</v>
       </c>
       <c r="G29">
-        <v>389.6999800936812</v>
+        <v>4841449.848426768</v>
       </c>
       <c r="H29">
-        <v>1785.678207393649</v>
+        <v>3986118.148202276</v>
       </c>
       <c r="I29">
-        <v>-276.878594399695</v>
+        <v>1115977.734772847</v>
       </c>
       <c r="J29">
-        <v>751.7775336969488</v>
+        <v>4841909.885748152</v>
       </c>
       <c r="K29">
-        <v>2593.066972043521</v>
+        <v>3987256.101511591</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1445,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>45.60044915801564</v>
+        <v>1116412.627709579</v>
       </c>
       <c r="G30">
-        <v>417.6472879768206</v>
+        <v>4841466.361229022</v>
       </c>
       <c r="H30">
-        <v>1800.647779856729</v>
+        <v>3986132.742155426</v>
       </c>
       <c r="I30">
-        <v>-235.6136746694205</v>
+        <v>1116034.8484252</v>
       </c>
       <c r="J30">
-        <v>698.4925806805155</v>
+        <v>4841861.234157867</v>
       </c>
       <c r="K30">
-        <v>2498.506336518619</v>
+        <v>3987150.883652014</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1480,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>44.55312010340014</v>
+        <v>1116411.394682733</v>
       </c>
       <c r="G31">
-        <v>445.5945958599601</v>
+        <v>4841482.874031277</v>
       </c>
       <c r="H31">
-        <v>1814.922793672887</v>
+        <v>3986146.658977924</v>
       </c>
       <c r="I31">
-        <v>-193.332644253818</v>
+        <v>1116093.368448698</v>
       </c>
       <c r="J31">
-        <v>645.2076276640825</v>
+        <v>4841812.582567581</v>
       </c>
       <c r="K31">
-        <v>2390.331404350291</v>
+        <v>3987030.517129947</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1515,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>43.57474732799387</v>
+        <v>1116410.242838532</v>
       </c>
       <c r="G32">
-        <v>473.5419037430996</v>
+        <v>4841499.386833533</v>
       </c>
       <c r="H32">
-        <v>1828.56485337236</v>
+        <v>3986159.95872851</v>
       </c>
       <c r="I32">
-        <v>-150.0104823620661</v>
+        <v>1116153.329473938</v>
       </c>
       <c r="J32">
-        <v>591.9226746476492</v>
+        <v>4841763.930977296</v>
       </c>
       <c r="K32">
-        <v>2268.542175538532</v>
+        <v>3986895.001945389</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1550,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>42.65808587625978</v>
+        <v>1116409.163647447</v>
       </c>
       <c r="G33">
-        <v>501.489211626239</v>
+        <v>4841515.899635786</v>
       </c>
       <c r="H33">
-        <v>1841.627714245581</v>
+        <v>3986172.693813634</v>
       </c>
       <c r="I33">
-        <v>-105.6215520893877</v>
+        <v>1116214.766984261</v>
       </c>
       <c r="J33">
-        <v>538.6377216312161</v>
+        <v>4841715.279387011</v>
       </c>
       <c r="K33">
-        <v>2133.138650083347</v>
+        <v>3986744.33809834</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1585,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>41.79691300629344</v>
+        <v>1116408.149783405</v>
       </c>
       <c r="G34">
-        <v>529.4365195093785</v>
+        <v>4841532.412438042</v>
       </c>
       <c r="H34">
-        <v>1854.158561657329</v>
+        <v>3986184.910234678</v>
       </c>
       <c r="I34">
-        <v>-60.13958524581162</v>
+        <v>1116277.717336754</v>
       </c>
       <c r="J34">
-        <v>485.3527686147829</v>
+        <v>4841666.627796726</v>
       </c>
       <c r="K34">
-        <v>1984.120827984733</v>
+        <v>3986578.525588801</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1620,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>40.98585001880689</v>
+        <v>1116407.194914032</v>
       </c>
       <c r="G35">
-        <v>557.383827392518</v>
+        <v>4841548.925240296</v>
       </c>
       <c r="H35">
-        <v>1866.199039895791</v>
+        <v>3986196.648590983</v>
       </c>
       <c r="I35">
-        <v>-13.53766681135489</v>
+        <v>1116342.217783764</v>
       </c>
       <c r="J35">
-        <v>432.0678155983496</v>
+        <v>4841617.97620644</v>
       </c>
       <c r="K35">
-        <v>1821.48870924269</v>
+        <v>3986397.564416771</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1655,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>40.2202206119029</v>
+        <v>1116406.293533889</v>
       </c>
       <c r="G36">
-        <v>585.3311352756575</v>
+        <v>4841565.438042551</v>
       </c>
       <c r="H36">
-        <v>1877.78608718943</v>
+        <v>3986207.944893918</v>
       </c>
       <c r="I36">
-        <v>34.21178099157164</v>
+        <v>1116408.306494942</v>
       </c>
       <c r="J36">
-        <v>378.7828625819165</v>
+        <v>4841569.324616155</v>
       </c>
       <c r="K36">
-        <v>1645.24229385722</v>
+        <v>3986201.454582251</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1690,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>39.49593723355915</v>
+        <v>1116405.440830676</v>
       </c>
       <c r="G37">
-        <v>613.2784431587969</v>
+        <v>4841581.950844807</v>
       </c>
       <c r="H37">
-        <v>1888.952619126004</v>
+        <v>3986218.831233146</v>
       </c>
       <c r="I37">
-        <v>83.13701501795869</v>
+        <v>1116476.022579833</v>
       </c>
       <c r="J37">
-        <v>325.4979095654832</v>
+        <v>4841520.67302587</v>
       </c>
       <c r="K37">
-        <v>1455.381581828322</v>
+        <v>3985990.19608524</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1725,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>38.80940912073837</v>
+        <v>1116404.632576966</v>
       </c>
       <c r="G38">
-        <v>641.2257510419364</v>
+        <v>4841598.463647061</v>
       </c>
       <c r="H38">
-        <v>1899.728092347013</v>
+        <v>3986229.336326177</v>
       </c>
       <c r="I38">
-        <v>133.266987921856</v>
+        <v>1116545.406111016</v>
       </c>
       <c r="J38">
-        <v>272.2129565490502</v>
+        <v>4841472.021435585</v>
       </c>
       <c r="K38">
-        <v>1251.906573155996</v>
+        <v>3985763.788925739</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1760,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>38.15746729996047</v>
+        <v>1116403.865041907</v>
       </c>
       <c r="G39">
-        <v>669.1730589250759</v>
+        <v>4841614.976449316</v>
       </c>
       <c r="H39">
-        <v>1910.138972836591</v>
+        <v>3986239.485974906</v>
       </c>
       <c r="I39">
-        <v>184.6313652897818</v>
+        <v>1116616.498147823</v>
       </c>
       <c r="J39">
-        <v>218.9280035326169</v>
+        <v>4841423.369845299</v>
       </c>
       <c r="K39">
-        <v>1034.81726784024</v>
+        <v>3985522.233103747</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1795,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>37.53730297320637</v>
+        <v>1116403.134918685</v>
       </c>
       <c r="G40">
-        <v>697.1203668082153</v>
+        <v>4841631.489251572</v>
       </c>
       <c r="H40">
-        <v>1920.209127549018</v>
+        <v>3986249.303447412</v>
       </c>
       <c r="I40">
-        <v>237.2605431960326</v>
+        <v>1116689.340760634</v>
       </c>
       <c r="J40">
-        <v>165.6430505161836</v>
+        <v>4841374.718255013</v>
       </c>
       <c r="K40">
-        <v>804.1136658810572</v>
+        <v>3985265.528619264</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1830,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>36.9464165554241</v>
+        <v>1116402.439264523</v>
       </c>
       <c r="G41">
-        <v>725.0676746913548</v>
+        <v>4841648.002053826</v>
       </c>
       <c r="H41">
-        <v>1929.960153958461</v>
+        <v>3986258.809799242</v>
       </c>
       <c r="I41">
-        <v>291.1856661902681</v>
+        <v>1116763.97705577</v>
       </c>
       <c r="J41">
-        <v>112.3580974997506</v>
+        <v>4841326.066664728</v>
       </c>
       <c r="K41">
-        <v>559.7957672784464</v>
+        <v>3984993.675472291</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1865,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>36.38257525432643</v>
+        <v>1116401.77545074</v>
       </c>
       <c r="G42">
-        <v>753.0149825744943</v>
+        <v>4841664.514856081</v>
       </c>
       <c r="H42">
-        <v>1939.411658977114</v>
+        <v>3986268.024145328</v>
       </c>
       <c r="I42">
-        <v>346.4386457280344</v>
+        <v>1116840.45120101</v>
       </c>
       <c r="J42">
-        <v>59.07314448331729</v>
+        <v>4841277.415074443</v>
       </c>
       <c r="K42">
-        <v>301.8635720324066</v>
+        <v>3984706.673662827</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1900,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>35.84377755075846</v>
+        <v>1116401.141120937</v>
       </c>
       <c r="G43">
-        <v>780.9622904576338</v>
+        <v>4841681.027658337</v>
       </c>
       <c r="H43">
-        <v>1948.581496298895</v>
+        <v>3986276.963891377</v>
       </c>
       <c r="I43">
-        <v>403.0521790551085</v>
+        <v>1116918.808451722</v>
       </c>
       <c r="J43">
-        <v>5.788191466884001</v>
+        <v>4841228.763484158</v>
       </c>
       <c r="K43">
-        <v>30.3170801429388</v>
+        <v>3984404.523190873</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1935,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>35.32822329143398</v>
+        <v>1116400.534155781</v>
       </c>
       <c r="G44">
-        <v>808.9095983407733</v>
+        <v>4841697.540460591</v>
       </c>
       <c r="H44">
-        <v>1957.485969390231</v>
+        <v>3986285.644931763</v>
       </c>
       <c r="I44">
-        <v>461.0597685568658</v>
+        <v>1116999.095177645</v>
       </c>
       <c r="J44">
-        <v>-47.49676154954903</v>
+        <v>4841180.111893873</v>
       </c>
       <c r="K44">
-        <v>-254.8437083899564</v>
+        <v>3984087.224056427</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1970,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>34.83428837550936</v>
+        <v>1116399.95264321</v>
       </c>
       <c r="G45">
-        <v>836.8569062239127</v>
+        <v>4841714.053262847</v>
       </c>
       <c r="H45">
-        <v>1966.140005927114</v>
+        <v>3986294.081819596</v>
       </c>
       <c r="I45">
-        <v>520.4957415841003</v>
+        <v>1117081.358890331</v>
       </c>
       <c r="J45">
-        <v>-100.7817145659823</v>
+        <v>4841131.460303588</v>
       </c>
       <c r="K45">
-        <v>-553.6187935662805</v>
+        <v>3983754.776259492</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2005,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>34.36050322390398</v>
+        <v>1116399.394853078</v>
       </c>
       <c r="G46">
-        <v>864.8042141070523</v>
+        <v>4841730.5660651</v>
       </c>
       <c r="H46">
-        <v>1974.557308366645</v>
+        <v>3986302.287913508</v>
       </c>
       <c r="I46">
-        <v>581.3952707670384</v>
+        <v>1117165.648271262</v>
       </c>
       <c r="J46">
-        <v>-154.0666675824156</v>
+        <v>4841082.808713301</v>
       </c>
       <c r="K46">
-        <v>-866.0081753860336</v>
+        <v>3983407.179800065</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2040,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>33.90553438111436</v>
+        <v>1116398.859215501</v>
       </c>
       <c r="G47">
-        <v>892.7515219901917</v>
+        <v>4841747.078867355</v>
       </c>
       <c r="H47">
-        <v>1982.750484467104</v>
+        <v>3986310.275504901</v>
       </c>
       <c r="I47">
-        <v>643.7943948295666</v>
+        <v>1117252.013200652</v>
       </c>
       <c r="J47">
-        <v>-207.3516205988489</v>
+        <v>4841034.157123016</v>
       </c>
       <c r="K47">
-        <v>-1192.011853849214</v>
+        <v>3983044.434678149</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2075,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>33.46816872489454</v>
+        <v>1116398.344302262</v>
       </c>
       <c r="G48">
-        <v>920.6988298733311</v>
+        <v>4841763.591669611</v>
       </c>
       <c r="H48">
-        <v>1990.731160877902</v>
+        <v>3986318.055928686</v>
       </c>
       <c r="I48">
-        <v>707.7300399159928</v>
+        <v>1117340.504786975</v>
       </c>
       <c r="J48">
-        <v>-260.6365736152817</v>
+        <v>4840985.505532731</v>
       </c>
       <c r="K48">
-        <v>-1531.629828955821</v>
+        <v>3982666.540893741</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2110,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>33.04729985799354</v>
+        <v>1116397.848810793</v>
       </c>
       <c r="G49">
-        <v>948.6461377564707</v>
+        <v>4841780.104471865</v>
       </c>
       <c r="H49">
-        <v>1998.510082368138</v>
+        <v>3986325.639660022</v>
       </c>
       <c r="I49">
-        <v>773.240041442958</v>
+        <v>1117431.175397201</v>
       </c>
       <c r="J49">
-        <v>-313.921526631715</v>
+        <v>4840936.853942446</v>
       </c>
       <c r="K49">
-        <v>-1884.862100705858</v>
+        <v>3982273.498446843</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2145,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>32.64191633438202</v>
+        <v>1116397.371550312</v>
       </c>
       <c r="G50">
-        <v>976.5934456396101</v>
+        <v>4841796.61727412</v>
       </c>
       <c r="H50">
-        <v>2006.097198819054</v>
+        <v>3986333.036399128</v>
       </c>
       <c r="I50">
-        <v>840.363166489428</v>
+        <v>1117524.078687787</v>
       </c>
       <c r="J50">
-        <v>-367.2064796481483</v>
+        <v>4840888.202352161</v>
       </c>
       <c r="K50">
-        <v>-2251.708669099323</v>
+        <v>3981865.307337455</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2180,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>32.25109143474148</v>
+        <v>1116396.911429788</v>
       </c>
       <c r="G51">
-        <v>1004.540753522749</v>
+        <v>4841813.130076376</v>
       </c>
       <c r="H51">
-        <v>2013.50174174751</v>
+        <v>3986340.255145879</v>
       </c>
       <c r="I51">
-        <v>909.1391367380245</v>
+        <v>1117619.269636435</v>
       </c>
       <c r="J51">
-        <v>-420.4914326645816</v>
+        <v>4840839.550761876</v>
       </c>
       <c r="K51">
-        <v>-2632.169534136217</v>
+        <v>3981441.967565576</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2215,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>31.87397425595694</v>
+        <v>1116396.467447447</v>
       </c>
       <c r="G52">
-        <v>1032.488061405889</v>
+        <v>4841829.64287863</v>
       </c>
       <c r="H52">
-        <v>2020.73229183686</v>
+        <v>3986347.304265653</v>
       </c>
       <c r="I52">
-        <v>979.6086519812611</v>
+        <v>1117716.804574619</v>
       </c>
       <c r="J52">
-        <v>-473.7763856810149</v>
+        <v>4840790.89917159</v>
       </c>
       <c r="K52">
-        <v>-3026.244695816538</v>
+        <v>3981003.479131205</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2250,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>31.50978191962549</v>
+        <v>1116396.038681601</v>
       </c>
       <c r="G53">
-        <v>1060.435369289029</v>
+        <v>4841846.155680886</v>
       </c>
       <c r="H53">
-        <v>2027.796838714285</v>
+        <v>3986354.191547598</v>
       </c>
       <c r="I53">
-        <v>1051.813414206595</v>
+        <v>1117816.741220925</v>
       </c>
       <c r="J53">
-        <v>-527.0613386974476</v>
+        <v>4840742.247581305</v>
       </c>
       <c r="K53">
-        <v>-3433.934154140285</v>
+        <v>3980549.842034345</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2285,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>31.15779273723097</v>
+        <v>1116395.624282602</v>
       </c>
       <c r="G54">
-        <v>1088.382677172168</v>
+        <v>4841862.668483141</v>
       </c>
       <c r="H54">
-        <v>2034.702834018905</v>
+        <v>3986360.924256377</v>
       </c>
       <c r="I54">
-        <v>1125.796152274567</v>
+        <v>1117919.138715207</v>
       </c>
       <c r="J54">
-        <v>-580.3462917138809</v>
+        <v>4840693.595991019</v>
       </c>
       <c r="K54">
-        <v>-3855.237909107463</v>
+        <v>3980081.056274994</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2323,34 +2317,34 @@
         <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>226.9770387854128</v>
+        <v>1116577.636204269</v>
       </c>
       <c r="G55">
-        <v>-186.8094185110839</v>
+        <v>4841123.284741702</v>
       </c>
       <c r="H55">
-        <v>1286.208132169028</v>
+        <v>3985224.757569038</v>
       </c>
       <c r="I55">
-        <v>-1295.911291802218</v>
+        <v>1114860.705465842</v>
       </c>
       <c r="J55">
-        <v>2446.508783218188</v>
+        <v>4843220.469402337</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984366.579202131</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2358,34 +2352,34 @@
         <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>226.9770387854128</v>
+        <v>1116577.636204269</v>
       </c>
       <c r="G56">
-        <v>-186.8094185110839</v>
+        <v>4841123.284741702</v>
       </c>
       <c r="H56">
-        <v>1286.208132169028</v>
+        <v>3985224.757569038</v>
       </c>
       <c r="I56">
-        <v>-1270.326552230687</v>
+        <v>1114890.319444987</v>
       </c>
       <c r="J56">
-        <v>2386.995514250606</v>
+        <v>4843171.817842281</v>
       </c>
       <c r="K56">
-        <v>364.0289659725667</v>
+        <v>3984670.374908794</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2393,34 +2387,34 @@
         <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>226.9770387854128</v>
+        <v>1116577.636204269</v>
       </c>
       <c r="G57">
-        <v>-186.8094185110839</v>
+        <v>4841123.284741702</v>
       </c>
       <c r="H57">
-        <v>1286.208132169028</v>
+        <v>3985224.757569038</v>
       </c>
       <c r="I57">
-        <v>-1244.111811984735</v>
+        <v>1114920.662641125</v>
       </c>
       <c r="J57">
-        <v>2327.482245283026</v>
+        <v>4843123.166282224</v>
       </c>
       <c r="K57">
-        <v>709.9057790528655</v>
+        <v>3984959.021968972</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2428,34 +2422,34 @@
         <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>226.9770387854128</v>
+        <v>1116577.636204269</v>
       </c>
       <c r="G58">
-        <v>-186.8094185110839</v>
+        <v>4841123.284741702</v>
       </c>
       <c r="H58">
-        <v>1286.208132169028</v>
+        <v>3985224.757569038</v>
       </c>
       <c r="I58">
-        <v>-1217.251557877346</v>
+        <v>1114951.753010553</v>
       </c>
       <c r="J58">
-        <v>2267.968976315445</v>
+        <v>4843074.514722168</v>
       </c>
       <c r="K58">
-        <v>1037.630439240899</v>
+        <v>3985232.520382667</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2463,34 +2457,34 @@
         <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>226.9770387854128</v>
+        <v>1116577.636204269</v>
       </c>
       <c r="G59">
-        <v>-186.8094185110839</v>
+        <v>4841123.284741702</v>
       </c>
       <c r="H59">
-        <v>1286.208132169028</v>
+        <v>3985224.757569038</v>
       </c>
       <c r="I59">
-        <v>-1189.729894723543</v>
+        <v>1114983.608951725</v>
       </c>
       <c r="J59">
-        <v>2208.455707347864</v>
+        <v>4843025.863162112</v>
       </c>
       <c r="K59">
-        <v>1347.202946536665</v>
+        <v>3985490.870149879</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2498,34 +2492,34 @@
         <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>226.9770387854128</v>
+        <v>1116577.636204269</v>
       </c>
       <c r="G60">
-        <v>-186.8094185110839</v>
+        <v>4841123.284741702</v>
       </c>
       <c r="H60">
-        <v>1286.208132169028</v>
+        <v>3985224.757569038</v>
       </c>
       <c r="I60">
-        <v>-1161.530535934043</v>
+        <v>1115016.249316142</v>
       </c>
       <c r="J60">
-        <v>2148.942438380283</v>
+        <v>4842977.211602056</v>
       </c>
       <c r="K60">
-        <v>1638.623300940166</v>
+        <v>3985734.071270607</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2533,34 +2527,34 @@
         <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>226.9770387854128</v>
+        <v>1116577.636204269</v>
       </c>
       <c r="G61">
-        <v>-186.8094185110839</v>
+        <v>4841123.284741702</v>
       </c>
       <c r="H61">
-        <v>1286.208132169028</v>
+        <v>3985224.757569038</v>
       </c>
       <c r="I61">
-        <v>-1132.636793877286</v>
+        <v>1115049.693419504</v>
       </c>
       <c r="J61">
-        <v>2089.429169412702</v>
+        <v>4842928.560041999</v>
       </c>
       <c r="K61">
-        <v>1911.891502451399</v>
+        <v>3985962.123744851</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2568,34 +2562,34 @@
         <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>226.9770387854128</v>
+        <v>1116577.636204269</v>
       </c>
       <c r="G62">
-        <v>-186.8094185110839</v>
+        <v>4841123.284741702</v>
       </c>
       <c r="H62">
-        <v>1286.208132169028</v>
+        <v>3985224.757569038</v>
       </c>
       <c r="I62">
-        <v>-1103.031570004137</v>
+        <v>1115083.961053143</v>
       </c>
       <c r="J62">
-        <v>2029.915900445121</v>
+        <v>4842879.908481943</v>
       </c>
       <c r="K62">
-        <v>2167.007551070367</v>
+        <v>3986175.027572611</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2603,34 +2597,34 @@
         <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>226.9770387854128</v>
+        <v>1116577.636204269</v>
       </c>
       <c r="G63">
-        <v>-155.9619251757162</v>
+        <v>4841139.797556552</v>
       </c>
       <c r="H63">
-        <v>1286.208132169028</v>
+        <v>3985224.757569038</v>
       </c>
       <c r="I63">
-        <v>-1072.697344729418</v>
+        <v>1115119.072495735</v>
       </c>
       <c r="J63">
-        <v>1970.402631477541</v>
+        <v>4842831.256921887</v>
       </c>
       <c r="K63">
-        <v>2403.971446797067</v>
+        <v>3986372.782753888</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2638,34 +2632,34 @@
         <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>176.1606604350209</v>
+        <v>1116528.955678326</v>
       </c>
       <c r="G64">
-        <v>-125.1144318403486</v>
+        <v>4841156.310371401</v>
       </c>
       <c r="H64">
-        <v>1584.59976386593</v>
+        <v>3985424.01179728</v>
       </c>
       <c r="I64">
-        <v>-1041.616167064285</v>
+        <v>1115155.048525298</v>
       </c>
       <c r="J64">
-        <v>1910.88936250996</v>
+        <v>4842782.605361831</v>
       </c>
       <c r="K64">
-        <v>2622.7831896315</v>
+        <v>3986555.389288681</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2673,34 +2667,34 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>146.3085873788879</v>
+        <v>1116500.358311414</v>
       </c>
       <c r="G65">
-        <v>-94.26693850498097</v>
+        <v>4841172.82318625</v>
       </c>
       <c r="H65">
-        <v>1762.337080031996</v>
+        <v>3985542.697805868</v>
       </c>
       <c r="I65">
-        <v>-1009.769643993307</v>
+        <v>1115191.910431493</v>
       </c>
       <c r="J65">
-        <v>1851.376093542379</v>
+        <v>4842733.953801775</v>
       </c>
       <c r="K65">
-        <v>2823.442779573668</v>
+        <v>3986722.84717699</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2708,34 +2702,34 @@
         <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>127.4637688069708</v>
+        <v>1116482.30555541</v>
       </c>
       <c r="G66">
-        <v>-63.41944516961333</v>
+        <v>4841189.3360011</v>
       </c>
       <c r="H66">
-        <v>1889.353927089924</v>
+        <v>3985627.514674526</v>
       </c>
       <c r="I66">
-        <v>-977.1389295899694</v>
+        <v>1115229.680028215</v>
       </c>
       <c r="J66">
-        <v>1791.862824574798</v>
+        <v>4842685.302241719</v>
       </c>
       <c r="K66">
-        <v>3005.95021662357</v>
+        <v>3986875.156418815</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2743,34 +2737,34 @@
         <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>114.3214688305254</v>
+        <v>1116469.715636654</v>
       </c>
       <c r="G67">
-        <v>-32.57195183424568</v>
+        <v>4841205.848815949</v>
       </c>
       <c r="H67">
-        <v>1988.261877844607</v>
+        <v>3985693.561524709</v>
       </c>
       <c r="I67">
-        <v>-943.7047138641572</v>
+        <v>1115268.379666508</v>
       </c>
       <c r="J67">
-        <v>1732.349555607217</v>
+        <v>4842636.650681663</v>
       </c>
       <c r="K67">
-        <v>3170.305500781205</v>
+        <v>3987012.317014156</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2778,34 +2772,34 @@
         <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>104.5169194811176</v>
+        <v>1116460.323180236</v>
       </c>
       <c r="G68">
-        <v>-1.724458498878059</v>
+        <v>4841222.361630798</v>
       </c>
       <c r="H68">
-        <v>2069.275161512668</v>
+        <v>3985747.65901807</v>
       </c>
       <c r="I68">
-        <v>-909.4472113350112</v>
+        <v>1115308.032247792</v>
       </c>
       <c r="J68">
-        <v>1672.836286639637</v>
+        <v>4842587.999121607</v>
       </c>
       <c r="K68">
-        <v>3316.508632046572</v>
+        <v>3987134.328963014</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2813,34 +2807,34 @@
         <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>96.85113105460597</v>
+        <v>1116452.979590935</v>
       </c>
       <c r="G69">
-        <v>29.12303483648959</v>
+        <v>4841238.874445647</v>
       </c>
       <c r="H69">
-        <v>2137.887499096431</v>
+        <v>3985793.47564602</v>
       </c>
       <c r="I69">
-        <v>-874.3461493224094</v>
+        <v>1115348.661237411</v>
       </c>
       <c r="J69">
-        <v>1613.323017672056</v>
+        <v>4842539.34756155</v>
       </c>
       <c r="K69">
-        <v>3444.559610419673</v>
+        <v>3987241.192265389</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2848,34 +2842,34 @@
         <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>90.64895005320052</v>
+        <v>1116447.038092486</v>
       </c>
       <c r="G70">
-        <v>59.97052817185723</v>
+        <v>4841255.387260498</v>
       </c>
       <c r="H70">
-        <v>2197.396205781374</v>
+        <v>3985833.213226316</v>
       </c>
       <c r="I70">
-        <v>-838.380755950132</v>
+        <v>1115390.29067852</v>
       </c>
       <c r="J70">
-        <v>1553.809748704475</v>
+        <v>4842490.696001494</v>
       </c>
       <c r="K70">
-        <v>3554.458435900508</v>
+        <v>3987332.906921279</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2883,34 +2877,34 @@
         <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>85.49892986113869</v>
+        <v>1116442.104531699</v>
       </c>
       <c r="G71">
-        <v>90.81802150722486</v>
+        <v>4841271.900075347</v>
       </c>
       <c r="H71">
-        <v>2249.936505177561</v>
+        <v>3985868.297577537</v>
       </c>
       <c r="I71">
-        <v>-801.5297478536178</v>
+        <v>1115432.945206319</v>
       </c>
       <c r="J71">
-        <v>1494.296479736894</v>
+        <v>4842442.044441438</v>
       </c>
       <c r="K71">
-        <v>3646.205108489077</v>
+        <v>3987409.472930686</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2918,34 +2912,34 @@
         <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>81.13467523923974</v>
+        <v>1116437.923710137</v>
       </c>
       <c r="G72">
-        <v>121.6655148425925</v>
+        <v>4841288.412890196</v>
       </c>
       <c r="H72">
-        <v>2296.970645762686</v>
+        <v>3985899.705131864</v>
       </c>
       <c r="I72">
-        <v>-763.7713175850323</v>
+        <v>1115476.650062623</v>
       </c>
       <c r="J72">
-        <v>1434.783210769313</v>
+        <v>4842393.392881382</v>
       </c>
       <c r="K72">
-        <v>3719.79962818538</v>
+        <v>3987470.890293609</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2953,34 +2947,34 @@
         <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>77.37529566075332</v>
+        <v>1116434.322340243</v>
       </c>
       <c r="G73">
-        <v>152.5130081779601</v>
+        <v>4841304.925705045</v>
       </c>
       <c r="H73">
-        <v>2339.544013072888</v>
+        <v>3985928.133956756</v>
       </c>
       <c r="I73">
-        <v>-725.0831207082019</v>
+        <v>1115521.431110806</v>
       </c>
       <c r="J73">
-        <v>1375.269941801733</v>
+        <v>4842344.741321325</v>
       </c>
       <c r="K73">
-        <v>3775.241994989415</v>
+        <v>3987517.159010048</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2988,34 +2982,34 @@
         <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>74.09316303507161</v>
+        <v>1116431.178158237</v>
       </c>
       <c r="G74">
-        <v>183.3605015133278</v>
+        <v>4841321.438519895</v>
       </c>
       <c r="H74">
-        <v>2378.429922992183</v>
+        <v>3985954.100442233</v>
       </c>
       <c r="I74">
-        <v>-685.4422625757683</v>
+        <v>1115567.314851103</v>
       </c>
       <c r="J74">
-        <v>1315.756672834152</v>
+        <v>4842296.089761269</v>
       </c>
       <c r="K74">
-        <v>3812.532208901184</v>
+        <v>3987548.279080004</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3023,34 +3017,34 @@
         <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>71.19535013607495</v>
+        <v>1116428.402142697</v>
       </c>
       <c r="G75">
-        <v>214.2079948486954</v>
+        <v>4841337.951334744</v>
       </c>
       <c r="H75">
-        <v>2414.216541864</v>
+        <v>3985977.997342705</v>
       </c>
       <c r="I75">
-        <v>-644.8252847807439</v>
+        <v>1115614.328436292</v>
       </c>
       <c r="J75">
-        <v>1256.243403866571</v>
+        <v>4842247.438201214</v>
       </c>
       <c r="K75">
-        <v>3831.670269920687</v>
+        <v>3987564.250503476</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3058,34 +3052,34 @@
         <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>68.61239352304732</v>
+        <v>1116425.927749784</v>
       </c>
       <c r="G76">
-        <v>245.0554881840631</v>
+        <v>4841354.464149593</v>
       </c>
       <c r="H76">
-        <v>2447.361648185493</v>
+        <v>3986000.130344702</v>
       </c>
       <c r="I76">
-        <v>-603.2081512744514</v>
+        <v>1115662.499687765</v>
       </c>
       <c r="J76">
-        <v>1196.73013489899</v>
+        <v>4842198.786641158</v>
       </c>
       <c r="K76">
-        <v>3832.656178047923</v>
+        <v>3987565.073280464</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3093,34 +3087,34 @@
         <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>66.29119908248882</v>
+        <v>1116423.704116974</v>
       </c>
       <c r="G77">
-        <v>275.9029815194307</v>
+        <v>4841370.976964443</v>
       </c>
       <c r="H77">
-        <v>2478.228534817854</v>
+        <v>3986020.742040945</v>
       </c>
       <c r="I77">
-        <v>-560.5662341426275</v>
+        <v>1115711.857111988</v>
       </c>
       <c r="J77">
-        <v>1137.216865931409</v>
+        <v>4842150.135081101</v>
       </c>
       <c r="K77">
-        <v>3815.489933282892</v>
+        <v>3987550.747410968</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3128,34 +3122,34 @@
         <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>64.1904010444828</v>
+        <v>1116421.691617133</v>
       </c>
       <c r="G78">
-        <v>306.7504748547984</v>
+        <v>4841387.489779292</v>
       </c>
       <c r="H78">
-        <v>2507.11034601647</v>
+        <v>3986040.028181672</v>
       </c>
       <c r="I78">
-        <v>-516.8742990312765</v>
+        <v>1115762.429917375</v>
       </c>
       <c r="J78">
-        <v>1077.703596963828</v>
+        <v>4842101.483521045</v>
       </c>
       <c r="K78">
-        <v>3780.171535625595</v>
+        <v>3987521.272894989</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3163,34 +3157,34 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>62.27723216673335</v>
+        <v>1116419.85886025</v>
       </c>
       <c r="G79">
-        <v>337.597968190166</v>
+        <v>4841404.002594142</v>
       </c>
       <c r="H79">
-        <v>2534.247050548828</v>
+        <v>3986058.149008613</v>
       </c>
       <c r="I79">
-        <v>-472.1064902136519</v>
+        <v>1115814.248031569</v>
       </c>
       <c r="J79">
-        <v>1018.190327996248</v>
+        <v>4842052.831960989</v>
       </c>
       <c r="K79">
-        <v>3726.700985076032</v>
+        <v>3987476.649732525</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3198,34 +3192,34 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>60.52535663803204</v>
+        <v>1116418.18061743</v>
       </c>
       <c r="G80">
-        <v>368.4454615255336</v>
+        <v>4841420.515408991</v>
       </c>
       <c r="H80">
-        <v>2559.837572813904</v>
+        <v>3986075.23735568</v>
       </c>
       <c r="I80">
-        <v>-426.2363152895222</v>
+        <v>1115867.342119153</v>
       </c>
       <c r="J80">
-        <v>958.6770590286667</v>
+        <v>4842004.180400932</v>
       </c>
       <c r="K80">
-        <v>3655.078281634202</v>
+        <v>3987416.877923579</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3233,34 +3227,34 @@
         <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>58.91333456955915</v>
+        <v>1116416.636349918</v>
       </c>
       <c r="G81">
-        <v>399.2929548609013</v>
+        <v>4841437.028223841</v>
       </c>
       <c r="H81">
-        <v>2584.04865043174</v>
+        <v>3986091.404563715</v>
       </c>
       <c r="I81">
-        <v>-379.2366295076733</v>
+        <v>1115921.743599798</v>
       </c>
       <c r="J81">
-        <v>899.163790061086</v>
+        <v>4841955.528840876</v>
       </c>
       <c r="K81">
-        <v>3565.303425300106</v>
+        <v>3987341.957468148</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3268,34 +3262,34 @@
         <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>57.42351164855145</v>
+        <v>1116415.209145428</v>
       </c>
       <c r="G82">
-        <v>430.1404481962689</v>
+        <v>4841453.54103869</v>
       </c>
       <c r="H82">
-        <v>2607.021424259753</v>
+        <v>3986106.744881048</v>
       </c>
       <c r="I82">
-        <v>-331.0796197023638</v>
+        <v>1115977.484666855</v>
       </c>
       <c r="J82">
-        <v>839.6505210935051</v>
+        <v>4841906.87728082</v>
       </c>
       <c r="K82">
-        <v>3457.376416073743</v>
+        <v>3987251.888366234</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3303,34 +3297,34 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>56.04120159289518</v>
+        <v>1116413.884934953</v>
       </c>
       <c r="G83">
-        <v>460.9879415316365</v>
+        <v>4841470.053853539</v>
       </c>
       <c r="H83">
-        <v>2628.876423644116</v>
+        <v>3986121.338792448</v>
       </c>
       <c r="I83">
-        <v>-281.7367878342354</v>
+        <v>1116034.598306408</v>
       </c>
       <c r="J83">
-        <v>780.1372521259242</v>
+        <v>4841858.225720764</v>
       </c>
       <c r="K83">
-        <v>3331.297253955113</v>
+        <v>3987146.670617837</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3338,34 +3332,34 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>54.7540743876254</v>
+        <v>1116412.651906718</v>
       </c>
       <c r="G84">
-        <v>491.8354348670042</v>
+        <v>4841486.566668388</v>
       </c>
       <c r="H84">
-        <v>2649.71739414834</v>
+        <v>3986135.255575133</v>
       </c>
       <c r="I84">
-        <v>-231.1789341259274</v>
+        <v>1116093.118316791</v>
       </c>
       <c r="J84">
-        <v>720.6239831583435</v>
+        <v>4841809.574160707</v>
       </c>
       <c r="K84">
-        <v>3187.065938944218</v>
+        <v>3987026.304222955</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3373,34 +3367,34 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>53.55169180254278</v>
+        <v>1116411.50006122</v>
       </c>
       <c r="G85">
-        <v>522.6829282023718</v>
+        <v>4841503.079483238</v>
       </c>
       <c r="H85">
-        <v>2669.634276014456</v>
+        <v>3986148.555287672</v>
       </c>
       <c r="I85">
-        <v>-179.3761397824248</v>
+        <v>1116153.079328592</v>
       </c>
       <c r="J85">
-        <v>661.1107141907626</v>
+        <v>4841760.922600652</v>
       </c>
       <c r="K85">
-        <v>3024.682471041055</v>
+        <v>3986890.78918159</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3408,34 +3402,34 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>52.42515006539772</v>
+        <v>1116410.420868919</v>
       </c>
       <c r="G86">
-        <v>553.5304215377394</v>
+        <v>4841519.592298087</v>
       </c>
       <c r="H86">
-        <v>2688.705549896618</v>
+        <v>3986161.290336363</v>
       </c>
       <c r="I86">
-        <v>-126.2977492859102</v>
+        <v>1116214.516825146</v>
       </c>
       <c r="J86">
-        <v>601.5974452231819</v>
+        <v>4841712.271040596</v>
       </c>
       <c r="K86">
-        <v>2844.146850245627</v>
+        <v>3986740.12549374</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3443,34 +3437,34 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>51.36680166525631</v>
+        <v>1116409.407003736</v>
       </c>
       <c r="G87">
-        <v>584.3779148731071</v>
+        <v>4841536.105112936</v>
       </c>
       <c r="H87">
-        <v>2707.000104610504</v>
+        <v>3986173.506722459</v>
       </c>
       <c r="I87">
-        <v>-71.91235225464266</v>
+        <v>1116277.467163532</v>
       </c>
       <c r="J87">
-        <v>542.0841762556011</v>
+        <v>4841663.61948054</v>
       </c>
       <c r="K87">
-        <v>2645.459076557931</v>
+        <v>3986574.313159408</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3478,34 +3472,34 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>50.37003638716079</v>
+        <v>1116408.452133288</v>
       </c>
       <c r="G88">
-        <v>615.2254082084747</v>
+        <v>4841552.617927785</v>
       </c>
       <c r="H88">
-        <v>2724.578739213331</v>
+        <v>3986185.245045184</v>
       </c>
       <c r="I88">
-        <v>-16.18776485512824</v>
+        <v>1116341.967596086</v>
       </c>
       <c r="J88">
-        <v>482.5709072880201</v>
+        <v>4841614.967920483</v>
       </c>
       <c r="K88">
-        <v>2428.619149977969</v>
+        <v>3986393.352178591</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3513,34 +3507,34 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>49.42910723558439</v>
+        <v>1116407.55075213</v>
       </c>
       <c r="G89">
-        <v>646.0729015438424</v>
+        <v>4841569.130742636</v>
       </c>
       <c r="H89">
-        <v>2741.495382096328</v>
+        <v>3986196.541315803</v>
       </c>
       <c r="I89">
-        <v>40.908989243419</v>
+        <v>1116408.056292453</v>
       </c>
       <c r="J89">
-        <v>423.0576383204394</v>
+        <v>4841566.316360427</v>
       </c>
       <c r="K89">
-        <v>2193.627070505741</v>
+        <v>3986197.242551291</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3548,34 +3542,34 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>48.53899076599671</v>
+        <v>1116406.698047956</v>
       </c>
       <c r="G90">
-        <v>676.92039487921</v>
+        <v>4841585.643557485</v>
       </c>
       <c r="H90">
-        <v>2757.798088750187</v>
+        <v>3986207.427623888</v>
       </c>
       <c r="I90">
-        <v>99.4116983835923</v>
+        <v>1116475.772362167</v>
       </c>
       <c r="J90">
-        <v>363.5443693528585</v>
+        <v>4841517.664800371</v>
       </c>
       <c r="K90">
-        <v>1940.482838141246</v>
+        <v>3985985.984277507</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3583,34 +3577,34 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>47.69527406846027</v>
+        <v>1116405.889793336</v>
       </c>
       <c r="G91">
-        <v>707.7678882145776</v>
+        <v>4841602.156372334</v>
       </c>
       <c r="H91">
-        <v>2773.529864737256</v>
+        <v>3986217.932686866</v>
       </c>
       <c r="I91">
-        <v>159.3549829148374</v>
+        <v>1116545.155877801</v>
       </c>
       <c r="J91">
-        <v>304.0311003852779</v>
+        <v>4841469.013240315</v>
       </c>
       <c r="K91">
-        <v>1669.186452884486</v>
+        <v>3985759.577357239</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3618,34 +3612,34 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>46.89406259621249</v>
+        <v>1116405.122257413</v>
       </c>
       <c r="G92">
-        <v>738.6153815499454</v>
+        <v>4841618.669187183</v>
       </c>
       <c r="H92">
-        <v>2788.729349375282</v>
+        <v>3986228.082306559</v>
       </c>
       <c r="I92">
-        <v>220.7743156808531</v>
+        <v>1116616.247898676</v>
       </c>
       <c r="J92">
-        <v>244.517831417697</v>
+        <v>4841420.361680258</v>
       </c>
       <c r="K92">
-        <v>1379.737914735457</v>
+        <v>3985518.021790488</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3653,34 +3647,34 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>46.13190444430666</v>
+        <v>1116404.392133369</v>
       </c>
       <c r="G93">
-        <v>769.4628748853129</v>
+        <v>4841635.182002033</v>
       </c>
       <c r="H93">
-        <v>2803.431387498504</v>
+        <v>3986237.89975098</v>
       </c>
       <c r="I93">
-        <v>283.7060430114826</v>
+        <v>1116689.090495161</v>
       </c>
       <c r="J93">
-        <v>185.004562450116</v>
+        <v>4841371.710120202</v>
       </c>
       <c r="K93">
-        <v>1072.137223694162</v>
+        <v>3985261.317577253</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3688,34 +3682,34 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>45.40572771866319</v>
+        <v>1116403.696478423</v>
       </c>
       <c r="G94">
-        <v>800.3103682206805</v>
+        <v>4841651.694816882</v>
       </c>
       <c r="H94">
-        <v>2817.667510587582</v>
+        <v>3986247.406075615</v>
       </c>
       <c r="I94">
-        <v>348.1874062315002</v>
+        <v>1116763.72677357</v>
       </c>
       <c r="J94">
-        <v>125.4912934825354</v>
+        <v>4841323.058560146</v>
       </c>
       <c r="K94">
-        <v>746.3843797606022</v>
+        <v>3984989.464717533</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3723,34 +3717,34 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>44.71278840326917</v>
+        <v>1116403.032663893</v>
       </c>
       <c r="G95">
-        <v>831.1578615560481</v>
+        <v>4841668.207631731</v>
       </c>
       <c r="H95">
-        <v>2831.466343979345</v>
+        <v>3986256.620395341</v>
       </c>
       <c r="I95">
-        <v>414.2565636990458</v>
+        <v>1116840.200901671</v>
       </c>
       <c r="J95">
-        <v>65.97802451495444</v>
+        <v>4841274.407000091</v>
       </c>
       <c r="K95">
-        <v>402.4793829347744</v>
+        <v>3984702.463211331</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3758,34 +3752,34 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>44.05062670791373</v>
+        <v>1116402.398333375</v>
       </c>
       <c r="G96">
-        <v>862.0053548914159</v>
+        <v>4841684.720446581</v>
       </c>
       <c r="H96">
-        <v>2844.853953379446</v>
+        <v>3986265.560115815</v>
       </c>
       <c r="I96">
-        <v>481.9526133867188</v>
+        <v>1116918.558134822</v>
       </c>
       <c r="J96">
-        <v>6.464755547373517</v>
+        <v>4841225.755440034</v>
       </c>
       <c r="K96">
-        <v>40.42223321668029</v>
+        <v>3984400.313058645</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3793,34 +3787,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>43.41703031330891</v>
+        <v>1116401.791367536</v>
       </c>
       <c r="G97">
-        <v>892.8528482267835</v>
+        <v>4841701.23326143</v>
       </c>
       <c r="H97">
-        <v>2857.854141221096</v>
+        <v>3986274.241131367</v>
       </c>
       <c r="I97">
-        <v>551.3156160187265</v>
+        <v>1116998.844842752</v>
       </c>
       <c r="J97">
-        <v>-53.04851342020713</v>
+        <v>4841177.103879978</v>
       </c>
       <c r="K97">
-        <v>-339.7870693936792</v>
+        <v>3984083.014259475</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3828,34 +3822,34 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>42.81000326186076</v>
+        <v>1116401.209854309</v>
       </c>
       <c r="G98">
-        <v>923.700341562151</v>
+        <v>4841717.74607628</v>
       </c>
       <c r="H98">
-        <v>2870.488701336444</v>
+        <v>3986282.677995064</v>
       </c>
       <c r="I98">
-        <v>622.3866187777553</v>
+        <v>1117081.108537002</v>
       </c>
       <c r="J98">
-        <v>-112.5617823877881</v>
+        <v>4841128.452319922</v>
       </c>
       <c r="K98">
-        <v>-738.1485248963063</v>
+        <v>3983750.566813821</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3863,34 +3857,34 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>42.22773949729058</v>
+        <v>1116400.652063549</v>
       </c>
       <c r="G99">
-        <v>954.5478348975188</v>
+        <v>4841734.258891129</v>
       </c>
       <c r="H99">
-        <v>2882.777638785235</v>
+        <v>3986290.8840655</v>
       </c>
       <c r="I99">
-        <v>695.2076795956021</v>
+        <v>1117165.397899041</v>
       </c>
       <c r="J99">
-        <v>-172.075051355369</v>
+        <v>4841079.800759865</v>
       </c>
       <c r="K99">
-        <v>-1154.662133291201</v>
+        <v>3983402.970721683</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3898,34 +3892,34 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>41.6686002539707</v>
+        <v>1116400.116425369</v>
       </c>
       <c r="G100">
-        <v>985.3953282328864</v>
+        <v>4841750.771705979</v>
       </c>
       <c r="H100">
-        <v>2894.739360409092</v>
+        <v>3986298.871634042</v>
       </c>
       <c r="I100">
-        <v>769.8218920419408</v>
+        <v>1117251.762809077</v>
       </c>
       <c r="J100">
-        <v>-231.5883203229499</v>
+        <v>4841031.149199809</v>
       </c>
       <c r="K100">
-        <v>-1589.327894578361</v>
+        <v>3983040.225983063</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3933,34 +3927,34 @@
         <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>41.13109465122785</v>
+        <v>1116399.60151155</v>
       </c>
       <c r="G101">
-        <v>1016.242821568254</v>
+        <v>4841767.284520828</v>
       </c>
       <c r="H101">
-        <v>2906.390840668461</v>
+        <v>3986306.652035569</v>
       </c>
       <c r="I101">
-        <v>846.2734108259533</v>
+        <v>1117340.254375567</v>
       </c>
       <c r="J101">
-        <v>-291.1015892905303</v>
+        <v>4840982.497639753</v>
       </c>
       <c r="K101">
-        <v>-2042.145808757785</v>
+        <v>3982662.332597957</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3968,34 +3962,34 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>40.61386296931082</v>
+        <v>1116399.106019523</v>
       </c>
       <c r="G102">
-        <v>1047.090314903622</v>
+        <v>4841783.797335677</v>
       </c>
       <c r="H102">
-        <v>2917.747766512497</v>
+        <v>3986314.235745211</v>
       </c>
       <c r="I102">
-        <v>924.6074779259155</v>
+        <v>1117430.924965472</v>
       </c>
       <c r="J102">
-        <v>-350.6148582581112</v>
+        <v>4840933.846079697</v>
       </c>
       <c r="K102">
-        <v>-2513.115875829478</v>
+        <v>3982269.290566369</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4003,34 +3997,34 @@
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>40.11566217987501</v>
+        <v>1116398.628758505</v>
       </c>
       <c r="G103">
-        <v>1077.937808238989</v>
+        <v>4841800.310150526</v>
       </c>
       <c r="H103">
-        <v>2928.824664384686</v>
+        <v>3986321.632463156</v>
       </c>
       <c r="I103">
-        <v>1004.870449362193</v>
+        <v>1117523.828235238</v>
       </c>
       <c r="J103">
-        <v>-410.1281272256921</v>
+        <v>4840885.19451964</v>
       </c>
       <c r="K103">
-        <v>-3002.238095793438</v>
+        <v>3981861.099888296</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4038,34 +4032,34 @@
         <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>39.63535338045108</v>
+        <v>1116398.168637463</v>
       </c>
       <c r="G104">
-        <v>1108.785301574357</v>
+        <v>4841816.822965376</v>
       </c>
       <c r="H104">
-        <v>2939.635011944178</v>
+        <v>3986328.851189257</v>
       </c>
       <c r="I104">
-        <v>1087.10982262951</v>
+        <v>1117619.019162552</v>
       </c>
       <c r="J104">
-        <v>-469.6413961932731</v>
+        <v>4840836.542959585</v>
       </c>
       <c r="K104">
-        <v>-3509.512468649665</v>
+        <v>3981437.760563741</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4073,34 +4067,34 @@
         <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>39.17189084377355</v>
+        <v>1116397.724654622</v>
       </c>
       <c r="G105">
-        <v>1139.632794909725</v>
+        <v>4841833.335780225</v>
       </c>
       <c r="H105">
-        <v>2950.191336658266</v>
+        <v>3986335.900288865</v>
       </c>
       <c r="I105">
-        <v>1171.374264804699</v>
+        <v>1117716.554078877</v>
       </c>
       <c r="J105">
-        <v>-529.1546651608539</v>
+        <v>4840787.891399529</v>
       </c>
       <c r="K105">
-        <v>-4034.938994398157</v>
+        <v>3980999.272592701</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4108,34 +4102,34 @@
         <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>38.72431244233689</v>
+        <v>1116397.295888293</v>
       </c>
       <c r="G106">
-        <v>1170.480288245092</v>
+        <v>4841849.848595074</v>
       </c>
       <c r="H106">
-        <v>2960.50530307499</v>
+        <v>3986342.787551107</v>
       </c>
       <c r="I106">
-        <v>1257.713641346584</v>
+        <v>1117816.490702786</v>
       </c>
       <c r="J106">
-        <v>-588.6679341284344</v>
+        <v>4840739.239839473</v>
       </c>
       <c r="K106">
-        <v>-4578.517673038912</v>
+        <v>3980545.635975177</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4143,34 +4137,34 @@
         <v>95</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>38.29173124865753</v>
+        <v>1116396.881488828</v>
       </c>
       <c r="G107">
-        <v>1201.32778158046</v>
+        <v>4841866.361409925</v>
       </c>
       <c r="H107">
-        <v>2970.587790300536</v>
+        <v>3986349.520240625</v>
       </c>
       <c r="I107">
-        <v>1346.179045605045</v>
+        <v>1117918.888174119</v>
       </c>
       <c r="J107">
-        <v>-648.1812030960152</v>
+        <v>4840690.588279416</v>
       </c>
       <c r="K107">
-        <v>-5140.248504571939</v>
+        <v>3980076.85071117</v>
       </c>
     </row>
   </sheetData>
